--- a/excelfile/new_datasave.xlsx
+++ b/excelfile/new_datasave.xlsx
@@ -49,7 +49,7 @@
     <t>6:23:45 PM</t>
   </si>
   <si>
-    <t>02/11/2022</t>
+    <t>07/11/2022</t>
   </si>
   <si>
     <t>Late</t>

--- a/excelfile/new_datasave.xlsx
+++ b/excelfile/new_datasave.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Employee No.</t>
   </si>
@@ -37,19 +37,31 @@
     <t>Status</t>
   </si>
   <si>
+    <t>ekel</t>
+  </si>
+  <si>
     <t>josel</t>
   </si>
   <si>
     <t>Mathematics</t>
   </si>
   <si>
+    <t>8:23:45 AM</t>
+  </si>
+  <si>
     <t>9:12:45 AM</t>
   </si>
   <si>
+    <t>5:23:45 PM</t>
+  </si>
+  <si>
     <t>6:23:45 PM</t>
   </si>
   <si>
     <t>07/11/2022</t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
   <si>
     <t>Late</t>
@@ -410,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,25 +456,51 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>345</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/excelfile/new_datasave.xlsx
+++ b/excelfile/new_datasave.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>Employee No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time in</t>
   </si>
@@ -35,36 +26,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>ekel</t>
-  </si>
-  <si>
-    <t>josel</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>8:23:45 AM</t>
-  </si>
-  <si>
-    <t>9:12:45 AM</t>
-  </si>
-  <si>
-    <t>5:23:45 PM</t>
-  </si>
-  <si>
-    <t>6:23:45 PM</t>
-  </si>
-  <si>
-    <t>07/11/2022</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Late</t>
   </si>
 </sst>
 </file>
@@ -422,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,67 +402,6 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>756</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>345</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelfile/new_datasave.xlsx
+++ b/excelfile/new_datasave.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time in</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>9:12:45 AM</t>
+  </si>
+  <si>
+    <t>6:23:45 PM</t>
+  </si>
+  <si>
+    <t>07/11/2022</t>
+  </si>
+  <si>
+    <t>Late</t>
   </si>
 </sst>
 </file>
@@ -383,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +413,23 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excelfile/new_datasave.xlsx
+++ b/excelfile/new_datasave.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Time in</t>
   </si>
@@ -22,10 +25,13 @@
     <t>Time out</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Early Dismissal</t>
+  </si>
+  <si>
+    <t>25-11-2022</t>
   </si>
   <si>
     <t>9:12:45 AM</t>
@@ -34,10 +40,13 @@
     <t>6:23:45 PM</t>
   </si>
   <si>
-    <t>07/11/2022</t>
-  </si>
-  <si>
-    <t>Late</t>
+    <t>Departmet:  Mathematics</t>
+  </si>
+  <si>
+    <t>Name:  josel</t>
+  </si>
+  <si>
+    <t>Employee No:  234234234</t>
   </si>
 </sst>
 </file>
@@ -96,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -395,41 +405,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
